--- a/PythonResources/Data/Consumption/Sympheny/futu_1065_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1065_coo.xlsx
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>2.348176013776684</v>
+        <v>2.348176013776683</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>7.90559126788979</v>
+        <v>7.905591267889789</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>20.11205864234256</v>
+        <v>20.11205864234255</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>7.054014750851518</v>
+        <v>7.054014750851517</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>1072</v>
       </c>
       <c r="B1072">
-        <v>63.44548380460134</v>
+        <v>63.44548380460133</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>37.03157723213161</v>
+        <v>37.0315772321316</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>1093</v>
       </c>
       <c r="B1093">
-        <v>8.098637161056018</v>
+        <v>8.098637161056017</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>1097</v>
       </c>
       <c r="B1097">
-        <v>41.9355349220519</v>
+        <v>41.93553492205189</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>37.3296304784502</v>
+        <v>37.32963047845019</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>3.173285285313449</v>
+        <v>3.173285285313448</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>7.355584849634043</v>
+        <v>7.355584849634042</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>7.904360369527412</v>
+        <v>7.904360369527411</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>46.2055799553477</v>
+        <v>46.20557995534769</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>33.0724805708555</v>
+        <v>33.07248057085549</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>3.350563956599697</v>
+        <v>3.350563956599696</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>38.37149802089128</v>
+        <v>38.37149802089127</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>3.173285285313449</v>
+        <v>3.173285285313448</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13319,7 +13319,7 @@
         <v>1622</v>
       </c>
       <c r="B1622">
-        <v>3.173285285313449</v>
+        <v>3.173285285313448</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>16.39615232894763</v>
+        <v>16.39615232894762</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>16.08156987604854</v>
+        <v>16.08156987604853</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>7.054659507136574</v>
+        <v>7.054659507136573</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>7.90521027553953</v>
+        <v>7.905210275539529</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13559,7 +13559,7 @@
         <v>1652</v>
       </c>
       <c r="B1652">
-        <v>7.031624123497792</v>
+        <v>7.031624123497791</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>3.173285285313449</v>
+        <v>3.173285285313448</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>20.76200228478182</v>
+        <v>20.76200228478181</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>24.77265014175847</v>
+        <v>24.77265014175846</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14343,7 +14343,7 @@
         <v>1750</v>
       </c>
       <c r="B1750">
-        <v>6.753001487042451</v>
+        <v>6.75300148704245</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
@@ -14495,7 +14495,7 @@
         <v>1769</v>
       </c>
       <c r="B1769">
-        <v>37.67340280679996</v>
+        <v>37.67340280679995</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>7.904946511604734</v>
+        <v>7.904946511604733</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>29.4211085001738</v>
+        <v>29.42110850017379</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>33.40863305220006</v>
+        <v>33.40863305220005</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15255,7 +15255,7 @@
         <v>1864</v>
       </c>
       <c r="B1864">
-        <v>34.11171047394863</v>
+        <v>34.11171047394862</v>
       </c>
     </row>
     <row r="1865" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>3.173285285313449</v>
+        <v>3.173285285313448</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>41.59703787239805</v>
+        <v>41.59703787239804</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16255,7 +16255,7 @@
         <v>1989</v>
       </c>
       <c r="B1989">
-        <v>45.89990686202392</v>
+        <v>45.89990686202391</v>
       </c>
     </row>
     <row r="1990" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>20.14385685003731</v>
+        <v>20.1438568500373</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>12.05459796221846</v>
+        <v>12.05459796221845</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16375,7 +16375,7 @@
         <v>2004</v>
       </c>
       <c r="B2004">
-        <v>20.78984403345465</v>
+        <v>20.78984403345464</v>
       </c>
     </row>
     <row r="2005" spans="1:2">
@@ -16455,7 +16455,7 @@
         <v>2014</v>
       </c>
       <c r="B2014">
-        <v>20.13957801287286</v>
+        <v>20.13957801287285</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16559,7 +16559,7 @@
         <v>2027</v>
       </c>
       <c r="B2027">
-        <v>13.9652745987711</v>
+        <v>13.96527459877109</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -16615,7 +16615,7 @@
         <v>2034</v>
       </c>
       <c r="B2034">
-        <v>54.73775710389545</v>
+        <v>54.73775710389544</v>
       </c>
     </row>
     <row r="2035" spans="1:2">
@@ -16759,7 +16759,7 @@
         <v>2052</v>
       </c>
       <c r="B2052">
-        <v>43.08964867230028</v>
+        <v>43.08964867230027</v>
       </c>
     </row>
     <row r="2053" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>64.32352463643073</v>
+        <v>64.32352463643072</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>67.11063021410013</v>
+        <v>67.11063021410011</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>37.01868210643051</v>
+        <v>37.0186821064305</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16959,7 +16959,7 @@
         <v>2077</v>
       </c>
       <c r="B2077">
-        <v>42.66205802689338</v>
+        <v>42.66205802689337</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>7.667588277392912</v>
+        <v>7.667588277392911</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>7.008119826197152</v>
+        <v>7.008119826197151</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>17.36932401992649</v>
+        <v>17.36932401992648</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17519,7 +17519,7 @@
         <v>2147</v>
       </c>
       <c r="B2147">
-        <v>3.173285285313449</v>
+        <v>3.173285285313448</v>
       </c>
     </row>
     <row r="2148" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>64.27253027570366</v>
+        <v>64.27253027570364</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>3.173285285313449</v>
+        <v>3.173285285313448</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>39.10769247000858</v>
+        <v>39.10769247000857</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17727,7 +17727,7 @@
         <v>2173</v>
       </c>
       <c r="B2173">
-        <v>56.21542128082595</v>
+        <v>56.21542128082594</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
@@ -17735,7 +17735,7 @@
         <v>2174</v>
       </c>
       <c r="B2174">
-        <v>52.99750127632438</v>
+        <v>52.99750127632437</v>
       </c>
     </row>
     <row r="2175" spans="1:2">
@@ -17751,7 +17751,7 @@
         <v>2176</v>
       </c>
       <c r="B2176">
-        <v>60.35504970191745</v>
+        <v>60.35504970191744</v>
       </c>
     </row>
     <row r="2177" spans="1:2">
@@ -17959,7 +17959,7 @@
         <v>2202</v>
       </c>
       <c r="B2202">
-        <v>7.033060171587232</v>
+        <v>7.033060171587231</v>
       </c>
     </row>
     <row r="2203" spans="1:2">
@@ -18319,7 +18319,7 @@
         <v>2247</v>
       </c>
       <c r="B2247">
-        <v>3.173285285313449</v>
+        <v>3.173285285313448</v>
       </c>
     </row>
     <row r="2248" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>24.45200111835909</v>
+        <v>24.45200111835908</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18751,7 +18751,7 @@
         <v>2301</v>
       </c>
       <c r="B2301">
-        <v>20.14288971560973</v>
+        <v>20.14288971560972</v>
       </c>
     </row>
     <row r="2302" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>2.980063549524024</v>
+        <v>2.980063549524023</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>25.48334741051223</v>
+        <v>25.48334741051222</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18903,7 +18903,7 @@
         <v>2320</v>
       </c>
       <c r="B2320">
-        <v>37.68102265380515</v>
+        <v>37.68102265380514</v>
       </c>
     </row>
     <row r="2321" spans="1:2">
@@ -19063,7 +19063,7 @@
         <v>2340</v>
       </c>
       <c r="B2340">
-        <v>30.511332763994</v>
+        <v>30.51133276399399</v>
       </c>
     </row>
     <row r="2341" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>43.02605225691077</v>
+        <v>43.02605225691076</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>63.89886470141044</v>
+        <v>63.89886470141043</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>80.57460680124099</v>
+        <v>80.57460680124098</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>83.22396899073955</v>
+        <v>83.22396899073954</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>85.09903749609484</v>
+        <v>85.09903749609482</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>78.09815652455262</v>
+        <v>78.09815652455261</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -19999,7 +19999,7 @@
         <v>2457</v>
       </c>
       <c r="B2457">
-        <v>3.174428262364228</v>
+        <v>3.174428262364227</v>
       </c>
     </row>
     <row r="2458" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>58.05737275881251</v>
+        <v>58.0573727588125</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>64.69250107410537</v>
+        <v>64.69250107410535</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20271,7 +20271,7 @@
         <v>2491</v>
       </c>
       <c r="B2491">
-        <v>59.64171479381574</v>
+        <v>59.64171479381573</v>
       </c>
     </row>
     <row r="2492" spans="1:2">
@@ -20287,7 +20287,7 @@
         <v>2493</v>
       </c>
       <c r="B2493">
-        <v>59.32343964582952</v>
+        <v>59.32343964582951</v>
       </c>
     </row>
     <row r="2494" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>6.753382479392711</v>
+        <v>6.75338247939271</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20407,7 +20407,7 @@
         <v>2508</v>
       </c>
       <c r="B2508">
-        <v>53.60679596570132</v>
+        <v>53.60679596570131</v>
       </c>
     </row>
     <row r="2509" spans="1:2">
@@ -20431,7 +20431,7 @@
         <v>2511</v>
       </c>
       <c r="B2511">
-        <v>74.79436670572328</v>
+        <v>74.79436670572326</v>
       </c>
     </row>
     <row r="2512" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>65.85950995005484</v>
+        <v>65.85950995005483</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20503,7 +20503,7 @@
         <v>2520</v>
       </c>
       <c r="B2520">
-        <v>50.78862485793382</v>
+        <v>50.78862485793381</v>
       </c>
     </row>
     <row r="2521" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>41.38544058248456</v>
+        <v>41.38544058248455</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20671,7 +20671,7 @@
         <v>2541</v>
       </c>
       <c r="B2541">
-        <v>93.50724559528884</v>
+        <v>93.50724559528882</v>
       </c>
     </row>
     <row r="2542" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>94.77038177191923</v>
+        <v>94.77038177191922</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20879,7 +20879,7 @@
         <v>2567</v>
       </c>
       <c r="B2567">
-        <v>94.22058050339056</v>
+        <v>94.22058050339054</v>
       </c>
     </row>
     <row r="2568" spans="1:2">
@@ -20911,7 +20911,7 @@
         <v>2571</v>
       </c>
       <c r="B2571">
-        <v>101.2003603601492</v>
+        <v>101.2003603601491</v>
       </c>
     </row>
     <row r="2572" spans="1:2">
@@ -20959,7 +20959,7 @@
         <v>2577</v>
       </c>
       <c r="B2577">
-        <v>94.94387982680676</v>
+        <v>94.94387982680674</v>
       </c>
     </row>
     <row r="2578" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>89.66977341505718</v>
+        <v>89.66977341505716</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>85.38712632709894</v>
+        <v>85.38712632709893</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>59.32109507752023</v>
+        <v>59.32109507752022</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>47.39017309361686</v>
+        <v>47.39017309361685</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>48.88600767494437</v>
+        <v>48.88600767494436</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>83.7922337347039</v>
+        <v>83.79223373470388</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>84.22070359322679</v>
+        <v>84.22070359322677</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21415,7 +21415,7 @@
         <v>2634</v>
       </c>
       <c r="B2634">
-        <v>50.07792758918006</v>
+        <v>50.07792758918005</v>
       </c>
     </row>
     <row r="2635" spans="1:2">
@@ -21551,7 +21551,7 @@
         <v>2651</v>
       </c>
       <c r="B2651">
-        <v>12.63739902970041</v>
+        <v>12.6373990297004</v>
       </c>
     </row>
     <row r="2652" spans="1:2">
@@ -21591,7 +21591,7 @@
         <v>2656</v>
       </c>
       <c r="B2656">
-        <v>56.61546324859869</v>
+        <v>56.61546324859868</v>
       </c>
     </row>
     <row r="2657" spans="1:2">
@@ -21623,7 +21623,7 @@
         <v>2660</v>
       </c>
       <c r="B2660">
-        <v>49.72917305317306</v>
+        <v>49.72917305317305</v>
       </c>
     </row>
     <row r="2661" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>7.90559126788979</v>
+        <v>7.905591267889789</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21767,7 +21767,7 @@
         <v>2678</v>
       </c>
       <c r="B2678">
-        <v>59.34922989723172</v>
+        <v>59.34922989723171</v>
       </c>
     </row>
     <row r="2679" spans="1:2">
@@ -21791,7 +21791,7 @@
         <v>2681</v>
       </c>
       <c r="B2681">
-        <v>66.27010247521939</v>
+        <v>66.27010247521937</v>
       </c>
     </row>
     <row r="2682" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>59.29794246546598</v>
+        <v>59.29794246546597</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>30.74461731076843</v>
+        <v>30.74461731076842</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -21999,7 +21999,7 @@
         <v>2707</v>
       </c>
       <c r="B2707">
-        <v>93.20127943092641</v>
+        <v>93.20127943092638</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -22039,7 +22039,7 @@
         <v>2712</v>
       </c>
       <c r="B2712">
-        <v>63.53487047139305</v>
+        <v>63.53487047139304</v>
       </c>
     </row>
     <row r="2713" spans="1:2">
@@ -22103,7 +22103,7 @@
         <v>2720</v>
       </c>
       <c r="B2720">
-        <v>55.87370044974682</v>
+        <v>55.87370044974681</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>121.8650923671993</v>
+        <v>121.8650923671992</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22175,7 +22175,7 @@
         <v>2729</v>
       </c>
       <c r="B2729">
-        <v>124.6105818573788</v>
+        <v>124.6105818573787</v>
       </c>
     </row>
     <row r="2730" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>80.86533327159304</v>
+        <v>80.86533327159303</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>81.1507844632492</v>
+        <v>81.15078446324918</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22311,7 +22311,7 @@
         <v>2746</v>
       </c>
       <c r="B2746">
-        <v>109.5569879565388</v>
+        <v>109.5569879565387</v>
       </c>
     </row>
     <row r="2747" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>96.96665613564736</v>
+        <v>96.96665613564734</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22423,7 +22423,7 @@
         <v>2760</v>
       </c>
       <c r="B2760">
-        <v>86.59985428507959</v>
+        <v>86.59985428507957</v>
       </c>
     </row>
     <row r="2761" spans="1:2">
@@ -22447,7 +22447,7 @@
         <v>2763</v>
       </c>
       <c r="B2763">
-        <v>95.87320809040187</v>
+        <v>95.87320809040186</v>
       </c>
     </row>
     <row r="2764" spans="1:2">
@@ -22647,7 +22647,7 @@
         <v>2788</v>
       </c>
       <c r="B2788">
-        <v>71.2224168865188</v>
+        <v>71.22241688651879</v>
       </c>
     </row>
     <row r="2789" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>67.59742120931662</v>
+        <v>67.59742120931661</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22719,7 +22719,7 @@
         <v>2797</v>
       </c>
       <c r="B2797">
-        <v>118.9422948986297</v>
+        <v>118.9422948986296</v>
       </c>
     </row>
     <row r="2798" spans="1:2">
@@ -22791,7 +22791,7 @@
         <v>2806</v>
       </c>
       <c r="B2806">
-        <v>80.17456483346825</v>
+        <v>80.17456483346824</v>
       </c>
     </row>
     <row r="2807" spans="1:2">
@@ -22807,7 +22807,7 @@
         <v>2808</v>
       </c>
       <c r="B2808">
-        <v>65.2229596540824</v>
+        <v>65.22295965408239</v>
       </c>
     </row>
     <row r="2809" spans="1:2">
@@ -22847,7 +22847,7 @@
         <v>2813</v>
       </c>
       <c r="B2813">
-        <v>7.075584779296994</v>
+        <v>7.075584779296993</v>
       </c>
     </row>
     <row r="2814" spans="1:2">
@@ -22911,7 +22911,7 @@
         <v>2821</v>
       </c>
       <c r="B2821">
-        <v>59.01014670550054</v>
+        <v>59.01014670550053</v>
       </c>
     </row>
     <row r="2822" spans="1:2">
@@ -22919,7 +22919,7 @@
         <v>2822</v>
       </c>
       <c r="B2822">
-        <v>64.17523069086809</v>
+        <v>64.17523069086808</v>
       </c>
     </row>
     <row r="2823" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>51.59632864048449</v>
+        <v>51.59632864048448</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>30.50898819568471</v>
+        <v>30.5089881956847</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>82.69204505556921</v>
+        <v>82.6920450555692</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>87.34689236262736</v>
+        <v>87.34689236262734</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23703,7 +23703,7 @@
         <v>2920</v>
       </c>
       <c r="B2920">
-        <v>91.60580069645404</v>
+        <v>91.605800696454</v>
       </c>
     </row>
     <row r="2921" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>93.52981206526576</v>
+        <v>93.52981206526574</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -23983,7 +23983,7 @@
         <v>2955</v>
       </c>
       <c r="B2955">
-        <v>59.4456502689513</v>
+        <v>59.44565026895129</v>
       </c>
     </row>
     <row r="2956" spans="1:2">
@@ -24015,7 +24015,7 @@
         <v>2959</v>
       </c>
       <c r="B2959">
-        <v>69.01354046812824</v>
+        <v>69.01354046812823</v>
       </c>
     </row>
     <row r="2960" spans="1:2">
@@ -24543,7 +24543,7 @@
         <v>3025</v>
       </c>
       <c r="B3025">
-        <v>99.01991183250874</v>
+        <v>99.01991183250873</v>
       </c>
     </row>
     <row r="3026" spans="1:2">
@@ -24743,7 +24743,7 @@
         <v>3050</v>
       </c>
       <c r="B3050">
-        <v>96.61497088925374</v>
+        <v>96.61497088925373</v>
       </c>
     </row>
     <row r="3051" spans="1:2">
@@ -24847,7 +24847,7 @@
         <v>3063</v>
       </c>
       <c r="B3063">
-        <v>128.547112048678</v>
+        <v>128.5471120486779</v>
       </c>
     </row>
     <row r="3064" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>3067</v>
       </c>
       <c r="B3067">
-        <v>111.3485312158756</v>
+        <v>111.3485312158755</v>
       </c>
     </row>
     <row r="3068" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>92.9237411573141</v>
+        <v>92.92374115731408</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24951,7 +24951,7 @@
         <v>3076</v>
       </c>
       <c r="B3076">
-        <v>56.71217669135693</v>
+        <v>56.71217669135692</v>
       </c>
     </row>
     <row r="3077" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>55.32624374952743</v>
+        <v>55.32624374952742</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>80.49371919457046</v>
+        <v>80.49371919457045</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25103,7 +25103,7 @@
         <v>3095</v>
       </c>
       <c r="B3095">
-        <v>50.23354831070923</v>
+        <v>50.23354831070922</v>
       </c>
     </row>
     <row r="3096" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>25.47628439848049</v>
+        <v>25.47628439848048</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>59.91427085977079</v>
+        <v>59.91427085977078</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>38.04560302589987</v>
+        <v>38.04560302589986</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>58.49551396161122</v>
+        <v>58.49551396161121</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25495,7 +25495,7 @@
         <v>3144</v>
       </c>
       <c r="B3144">
-        <v>15.14620434905699</v>
+        <v>15.14620434905698</v>
       </c>
     </row>
     <row r="3145" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>55.84849634042195</v>
+        <v>55.84849634042194</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25663,7 +25663,7 @@
         <v>3165</v>
       </c>
       <c r="B3165">
-        <v>63.72829735690954</v>
+        <v>63.72829735690953</v>
       </c>
     </row>
     <row r="3166" spans="1:2">
@@ -25671,7 +25671,7 @@
         <v>3166</v>
       </c>
       <c r="B3166">
-        <v>49.28311893233049</v>
+        <v>49.28311893233048</v>
       </c>
     </row>
     <row r="3167" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>21.47437005845596</v>
+        <v>21.47437005845595</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>52.25896225889779</v>
+        <v>52.25896225889778</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25799,7 +25799,7 @@
         <v>3182</v>
       </c>
       <c r="B3182">
-        <v>59.55262119806269</v>
+        <v>59.55262119806268</v>
       </c>
     </row>
     <row r="3183" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>65.95417189554246</v>
+        <v>65.95417189554244</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25943,7 +25943,7 @@
         <v>3200</v>
       </c>
       <c r="B3200">
-        <v>4.328336862885543</v>
+        <v>4.328336862885542</v>
       </c>
     </row>
     <row r="3201" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>47.3497292902816</v>
+        <v>47.34972929028159</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>86.32231601146729</v>
+        <v>86.32231601146728</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26455,7 +26455,7 @@
         <v>3264</v>
       </c>
       <c r="B3264">
-        <v>83.12784169005863</v>
+        <v>83.12784169005862</v>
       </c>
     </row>
     <row r="3265" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>94.38352800088626</v>
+        <v>94.38352800088624</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26839,7 +26839,7 @@
         <v>3312</v>
       </c>
       <c r="B3312">
-        <v>95.9148241778918</v>
+        <v>95.91482417789176</v>
       </c>
     </row>
     <row r="3313" spans="1:2">
@@ -26879,7 +26879,7 @@
         <v>3317</v>
       </c>
       <c r="B3317">
-        <v>87.39261144465853</v>
+        <v>87.39261144465851</v>
       </c>
     </row>
     <row r="3318" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>47.3292143175753</v>
+        <v>47.32921431757529</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27127,7 +27127,7 @@
         <v>3348</v>
       </c>
       <c r="B3348">
-        <v>64.73089338017</v>
+        <v>64.73089338016999</v>
       </c>
     </row>
     <row r="3349" spans="1:2">
@@ -27167,7 +27167,7 @@
         <v>3353</v>
       </c>
       <c r="B3353">
-        <v>80.79177244088905</v>
+        <v>80.79177244088903</v>
       </c>
     </row>
     <row r="3354" spans="1:2">
@@ -27303,7 +27303,7 @@
         <v>3370</v>
       </c>
       <c r="B3370">
-        <v>85.79508121291553</v>
+        <v>85.79508121291552</v>
       </c>
     </row>
     <row r="3371" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>143.0136846590793</v>
+        <v>143.0136846590792</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>91.65210592056252</v>
+        <v>91.65210592056251</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>94.18746347602182</v>
+        <v>94.1874634760218</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -27711,7 +27711,7 @@
         <v>3421</v>
       </c>
       <c r="B3421">
-        <v>102.6355292364738</v>
+        <v>102.6355292364737</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>102.1487382412573</v>
+        <v>102.1487382412572</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27943,7 +27943,7 @@
         <v>3450</v>
       </c>
       <c r="B3450">
-        <v>83.72394818269581</v>
+        <v>83.72394818269579</v>
       </c>
     </row>
     <row r="3451" spans="1:2">
@@ -28431,7 +28431,7 @@
         <v>3511</v>
       </c>
       <c r="B3511">
-        <v>126.9199816420302</v>
+        <v>126.9199816420301</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -28519,7 +28519,7 @@
         <v>3522</v>
       </c>
       <c r="B3522">
-        <v>165.5133344391881</v>
+        <v>165.513334439188</v>
       </c>
     </row>
     <row r="3523" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>171.2179622067312</v>
+        <v>171.2179622067311</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28903,7 +28903,7 @@
         <v>3570</v>
       </c>
       <c r="B3570">
-        <v>161.7338903246114</v>
+        <v>161.7338903246113</v>
       </c>
     </row>
     <row r="3571" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>152.5713173719031</v>
+        <v>152.571317371903</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>133.0847309402716</v>
+        <v>133.0847309402715</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29567,7 +29567,7 @@
         <v>3653</v>
       </c>
       <c r="B3653">
-        <v>139.1152537028061</v>
+        <v>139.115253702806</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
@@ -29575,7 +29575,7 @@
         <v>3654</v>
       </c>
       <c r="B3654">
-        <v>141.0454195634297</v>
+        <v>141.0454195634296</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>122.8454149915215</v>
+        <v>122.8454149915214</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>143.817871589166</v>
+        <v>143.8178715891659</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29911,7 +29911,7 @@
         <v>3696</v>
       </c>
       <c r="B3696">
-        <v>140.534596743043</v>
+        <v>140.5345967430429</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -29975,7 +29975,7 @@
         <v>3704</v>
       </c>
       <c r="B3704">
-        <v>164.2085821750678</v>
+        <v>164.2085821750677</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -30199,7 +30199,7 @@
         <v>3732</v>
       </c>
       <c r="B3732">
-        <v>189.8150780360255</v>
+        <v>189.8150780360254</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>194.4242062610525</v>
+        <v>194.4242062610524</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -31391,7 +31391,7 @@
         <v>3881</v>
       </c>
       <c r="B3881">
-        <v>170.6165804353981</v>
+        <v>170.616580435398</v>
       </c>
     </row>
     <row r="3882" spans="1:2">
@@ -31671,7 +31671,7 @@
         <v>3916</v>
       </c>
       <c r="B3916">
-        <v>80.36594022171411</v>
+        <v>80.3659402217141</v>
       </c>
     </row>
     <row r="3917" spans="1:2">
@@ -31879,7 +31879,7 @@
         <v>3942</v>
       </c>
       <c r="B3942">
-        <v>48.03229173932387</v>
+        <v>48.03229173932386</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -32015,7 +32015,7 @@
         <v>3959</v>
       </c>
       <c r="B3959">
-        <v>71.46683813276236</v>
+        <v>71.46683813276235</v>
       </c>
     </row>
     <row r="3960" spans="1:2">
@@ -32111,7 +32111,7 @@
         <v>3971</v>
       </c>
       <c r="B3971">
-        <v>89.48367330550722</v>
+        <v>89.48367330550721</v>
       </c>
     </row>
     <row r="3972" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>113.7587474378265</v>
+        <v>113.7587474378264</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32191,7 +32191,7 @@
         <v>3981</v>
       </c>
       <c r="B3981">
-        <v>92.78541162706594</v>
+        <v>92.78541162706593</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>56.92113634192247</v>
+        <v>56.92113634192246</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>72.43514484449945</v>
+        <v>72.43514484449943</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32415,7 +32415,7 @@
         <v>4009</v>
       </c>
       <c r="B4009">
-        <v>77.44900417391774</v>
+        <v>77.44900417391773</v>
       </c>
     </row>
     <row r="4010" spans="1:2">
@@ -32567,7 +32567,7 @@
         <v>4028</v>
       </c>
       <c r="B4028">
-        <v>119.1667873142443</v>
+        <v>119.1667873142442</v>
       </c>
     </row>
     <row r="4029" spans="1:2">
@@ -32599,7 +32599,7 @@
         <v>4032</v>
       </c>
       <c r="B4032">
-        <v>98.12047681485708</v>
+        <v>98.12047681485706</v>
       </c>
     </row>
     <row r="4033" spans="1:2">
@@ -32759,7 +32759,7 @@
         <v>4052</v>
       </c>
       <c r="B4052">
-        <v>143.3542332060038</v>
+        <v>143.3542332060037</v>
       </c>
     </row>
     <row r="4053" spans="1:2">
@@ -33215,7 +33215,7 @@
         <v>4109</v>
       </c>
       <c r="B4109">
-        <v>108.4773142501104</v>
+        <v>108.4773142501103</v>
       </c>
     </row>
     <row r="4110" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>143.9251355893161</v>
+        <v>143.925135589316</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33783,7 +33783,7 @@
         <v>4180</v>
       </c>
       <c r="B4180">
-        <v>78.5213511043796</v>
+        <v>78.52135110437959</v>
       </c>
     </row>
     <row r="4181" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>78.11398236064034</v>
+        <v>78.11398236064032</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -33831,7 +33831,7 @@
         <v>4186</v>
       </c>
       <c r="B4186">
-        <v>79.88706214454147</v>
+        <v>79.88706214454146</v>
       </c>
     </row>
     <row r="4187" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>103.5112254999939</v>
+        <v>103.5112254999938</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -33999,7 +33999,7 @@
         <v>4207</v>
       </c>
       <c r="B4207">
-        <v>101.6089013880431</v>
+        <v>101.608901388043</v>
       </c>
     </row>
     <row r="4208" spans="1:2">
@@ -34143,7 +34143,7 @@
         <v>4225</v>
       </c>
       <c r="B4225">
-        <v>83.57887801855844</v>
+        <v>83.57887801855843</v>
       </c>
     </row>
     <row r="4226" spans="1:2">
@@ -34255,7 +34255,7 @@
         <v>4239</v>
       </c>
       <c r="B4239">
-        <v>163.6315252999436</v>
+        <v>163.6315252999435</v>
       </c>
     </row>
     <row r="4240" spans="1:2">
@@ -34479,7 +34479,7 @@
         <v>4267</v>
       </c>
       <c r="B4267">
-        <v>208.1138475479626</v>
+        <v>208.1138475479625</v>
       </c>
     </row>
     <row r="4268" spans="1:2">
@@ -34487,7 +34487,7 @@
         <v>4268</v>
       </c>
       <c r="B4268">
-        <v>205.4791389103971</v>
+        <v>205.479138910397</v>
       </c>
     </row>
     <row r="4269" spans="1:2">
@@ -34631,7 +34631,7 @@
         <v>4286</v>
       </c>
       <c r="B4286">
-        <v>224.944624227245</v>
+        <v>224.9446242272449</v>
       </c>
     </row>
     <row r="4287" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>181.875490527651</v>
+        <v>181.8754905276509</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>208.0842473730578</v>
+        <v>208.0842473730577</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34903,7 +34903,7 @@
         <v>4320</v>
       </c>
       <c r="B4320">
-        <v>167.0683693703252</v>
+        <v>167.0683693703251</v>
       </c>
     </row>
     <row r="4321" spans="1:2">
@@ -34919,7 +34919,7 @@
         <v>4322</v>
       </c>
       <c r="B4322">
-        <v>153.6720921931151</v>
+        <v>153.672092193115</v>
       </c>
     </row>
     <row r="4323" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>150.5318360138588</v>
+        <v>150.5318360138587</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35039,7 +35039,7 @@
         <v>4337</v>
       </c>
       <c r="B4337">
-        <v>189.9950236537636</v>
+        <v>189.9950236537635</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>190.0495348669546</v>
+        <v>190.0495348669545</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35463,7 +35463,7 @@
         <v>4390</v>
       </c>
       <c r="B4390">
-        <v>194.6964692559689</v>
+        <v>194.6964692559688</v>
       </c>
     </row>
     <row r="4391" spans="1:2">
@@ -35719,7 +35719,7 @@
         <v>4422</v>
       </c>
       <c r="B4422">
-        <v>149.5066735206214</v>
+        <v>149.5066735206213</v>
       </c>
     </row>
     <row r="4423" spans="1:2">
@@ -36215,7 +36215,7 @@
         <v>4484</v>
       </c>
       <c r="B4484">
-        <v>162.0114285982237</v>
+        <v>162.0114285982236</v>
       </c>
     </row>
     <row r="4485" spans="1:2">
@@ -36311,7 +36311,7 @@
         <v>4496</v>
       </c>
       <c r="B4496">
-        <v>122.9547304889422</v>
+        <v>122.9547304889421</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36599,7 +36599,7 @@
         <v>4532</v>
       </c>
       <c r="B4532">
-        <v>161.7042901497066</v>
+        <v>161.7042901497065</v>
       </c>
     </row>
     <row r="4533" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>194.1791988727316</v>
+        <v>194.1791988727315</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>185.7832997571614</v>
+        <v>185.7832997571613</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>198.0146195556926</v>
+        <v>198.0146195556925</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37191,7 +37191,7 @@
         <v>4606</v>
       </c>
       <c r="B4606">
-        <v>172.3407173558428</v>
+        <v>172.3407173558427</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>167.3406323652416</v>
+        <v>167.3406323652415</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37527,7 +37527,7 @@
         <v>4648</v>
       </c>
       <c r="B4648">
-        <v>183.5565460054125</v>
+        <v>183.5565460054124</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37727,7 +37727,7 @@
         <v>4673</v>
       </c>
       <c r="B4673">
-        <v>202.4965549499406</v>
+        <v>202.4965549499405</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>198.012568058422</v>
+        <v>198.0125680584219</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>159.313709687346</v>
+        <v>159.3137096873459</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38551,7 +38551,7 @@
         <v>4776</v>
       </c>
       <c r="B4776">
-        <v>139.3054568068973</v>
+        <v>139.3054568068972</v>
       </c>
     </row>
     <row r="4777" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>146.1738696689646</v>
+        <v>146.1738696689645</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>151.2393095011873</v>
+        <v>151.2393095011872</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38951,7 +38951,7 @@
         <v>4826</v>
       </c>
       <c r="B4826">
-        <v>118.3077960999279</v>
+        <v>118.3077960999278</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>147.6773240972973</v>
+        <v>147.6773240972972</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39223,7 +39223,7 @@
         <v>4860</v>
       </c>
       <c r="B4860">
-        <v>166.2419090413002</v>
+        <v>166.2419090413001</v>
       </c>
     </row>
     <row r="4861" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>173.5613582318673</v>
+        <v>173.5613582318672</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39495,7 +39495,7 @@
         <v>4894</v>
       </c>
       <c r="B4894">
-        <v>162.0281336474274</v>
+        <v>162.0281336474273</v>
       </c>
     </row>
     <row r="4895" spans="1:2">
@@ -39527,7 +39527,7 @@
         <v>4898</v>
       </c>
       <c r="B4898">
-        <v>137.2091196673527</v>
+        <v>137.2091196673526</v>
       </c>
     </row>
     <row r="4899" spans="1:2">
@@ -39535,7 +39535,7 @@
         <v>4899</v>
       </c>
       <c r="B4899">
-        <v>131.9018962282344</v>
+        <v>131.9018962282343</v>
       </c>
     </row>
     <row r="4900" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>175.8018863224333</v>
+        <v>175.8018863224332</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>177.67226569117</v>
+        <v>177.6722656911699</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>152.1202810434033</v>
+        <v>152.1202810434032</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39719,7 +39719,7 @@
         <v>4922</v>
       </c>
       <c r="B4922">
-        <v>141.9348901657669</v>
+        <v>141.9348901657668</v>
       </c>
     </row>
     <row r="4923" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>191.0409941907459</v>
+        <v>191.0409941907458</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -40207,7 +40207,7 @@
         <v>4983</v>
       </c>
       <c r="B4983">
-        <v>223.9385113515206</v>
+        <v>223.9385113515205</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>225.5987587855371</v>
+        <v>225.598758785537</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>180.3667608206224</v>
+        <v>180.3667608206223</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40455,7 +40455,7 @@
         <v>5014</v>
       </c>
       <c r="B5014">
-        <v>197.6107676644173</v>
+        <v>197.6107676644172</v>
       </c>
     </row>
     <row r="5015" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>213.3504408667635</v>
+        <v>213.3504408667634</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>205.8460638508011</v>
+        <v>205.846063850801</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40783,7 +40783,7 @@
         <v>5055</v>
       </c>
       <c r="B5055">
-        <v>239.1515358973924</v>
+        <v>239.1515358973923</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>240.8337636593085</v>
+        <v>240.8337636593084</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -40871,7 +40871,7 @@
         <v>5066</v>
       </c>
       <c r="B5066">
-        <v>190.8686684200131</v>
+        <v>190.868668420013</v>
       </c>
     </row>
     <row r="5067" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>226.3009569941697</v>
+        <v>226.3009569941696</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -41423,7 +41423,7 @@
         <v>5135</v>
       </c>
       <c r="B5135">
-        <v>225.8930021083531</v>
+        <v>225.893002108353</v>
       </c>
     </row>
     <row r="5136" spans="1:2">
@@ -41447,7 +41447,7 @@
         <v>5138</v>
       </c>
       <c r="B5138">
-        <v>200.821653963991</v>
+        <v>200.8216539639909</v>
       </c>
     </row>
     <row r="5139" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>173.8799264508922</v>
+        <v>173.8799264508921</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41751,7 +41751,7 @@
         <v>5176</v>
       </c>
       <c r="B5176">
-        <v>214.3597775239132</v>
+        <v>214.3597775239131</v>
       </c>
     </row>
     <row r="5177" spans="1:2">
@@ -41775,7 +41775,7 @@
         <v>5179</v>
       </c>
       <c r="B5179">
-        <v>212.1793289962728</v>
+        <v>212.1793289962727</v>
       </c>
     </row>
     <row r="5180" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>193.2466468277112</v>
+        <v>193.2466468277111</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41983,7 +41983,7 @@
         <v>5205</v>
       </c>
       <c r="B5205">
-        <v>196.9601499585891</v>
+        <v>196.960149958589</v>
       </c>
     </row>
     <row r="5206" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>205.9333990203222</v>
+        <v>205.9333990203221</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>56.75291356573086</v>
+        <v>56.75291356573085</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>83.89744623758332</v>
+        <v>83.89744623758331</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42559,7 +42559,7 @@
         <v>5277</v>
       </c>
       <c r="B5277">
-        <v>98.78809264092762</v>
+        <v>98.7880926409276</v>
       </c>
     </row>
     <row r="5278" spans="1:2">
@@ -42663,7 +42663,7 @@
         <v>5290</v>
       </c>
       <c r="B5290">
-        <v>88.80873070347015</v>
+        <v>88.80873070347013</v>
       </c>
     </row>
     <row r="5291" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>89.91741844272602</v>
+        <v>89.917418442726</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>84.69694403105147</v>
+        <v>84.69694403105146</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42799,7 +42799,7 @@
         <v>5307</v>
       </c>
       <c r="B5307">
-        <v>73.7061939391737</v>
+        <v>73.70619393917369</v>
       </c>
     </row>
     <row r="5308" spans="1:2">
@@ -42807,7 +42807,7 @@
         <v>5308</v>
       </c>
       <c r="B5308">
-        <v>69.99972451322367</v>
+        <v>69.99972451322365</v>
       </c>
     </row>
     <row r="5309" spans="1:2">
@@ -43191,7 +43191,7 @@
         <v>5356</v>
       </c>
       <c r="B5356">
-        <v>128.8835576010612</v>
+        <v>128.8835576010611</v>
       </c>
     </row>
     <row r="5357" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>143.0766949323915</v>
+        <v>143.0766949323914</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43415,7 +43415,7 @@
         <v>5384</v>
       </c>
       <c r="B5384">
-        <v>176.3622381483538</v>
+        <v>176.3622381483537</v>
       </c>
     </row>
     <row r="5385" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>191.9524451209827</v>
+        <v>191.9524451209826</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>133.2802093230587</v>
+        <v>133.2802093230586</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>149.3490013018216</v>
+        <v>149.3490013018215</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43711,7 +43711,7 @@
         <v>5421</v>
       </c>
       <c r="B5421">
-        <v>160.4100884429781</v>
+        <v>160.410088442978</v>
       </c>
     </row>
     <row r="5422" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>145.9531871768526</v>
+        <v>145.9531871768525</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -44039,7 +44039,7 @@
         <v>5462</v>
       </c>
       <c r="B5462">
-        <v>190.8865457533714</v>
+        <v>190.8865457533713</v>
       </c>
     </row>
     <row r="5463" spans="1:2">
@@ -44135,7 +44135,7 @@
         <v>5474</v>
       </c>
       <c r="B5474">
-        <v>146.5460698880645</v>
+        <v>146.5460698880644</v>
       </c>
     </row>
     <row r="5475" spans="1:2">
@@ -44143,7 +44143,7 @@
         <v>5475</v>
       </c>
       <c r="B5475">
-        <v>144.3981522457155</v>
+        <v>144.3981522457154</v>
       </c>
     </row>
     <row r="5476" spans="1:2">
@@ -44167,7 +44167,7 @@
         <v>5478</v>
       </c>
       <c r="B5478">
-        <v>140.4777409615427</v>
+        <v>140.4777409615426</v>
       </c>
     </row>
     <row r="5479" spans="1:2">
@@ -44183,7 +44183,7 @@
         <v>5480</v>
       </c>
       <c r="B5480">
-        <v>164.3170184593725</v>
+        <v>164.3170184593724</v>
       </c>
     </row>
     <row r="5481" spans="1:2">
@@ -44335,7 +44335,7 @@
         <v>5499</v>
       </c>
       <c r="B5499">
-        <v>159.9098161799832</v>
+        <v>159.9098161799831</v>
       </c>
     </row>
     <row r="5500" spans="1:2">
@@ -44447,7 +44447,7 @@
         <v>5513</v>
       </c>
       <c r="B5513">
-        <v>186.5444052445649</v>
+        <v>186.5444052445648</v>
       </c>
     </row>
     <row r="5514" spans="1:2">
@@ -44487,7 +44487,7 @@
         <v>5518</v>
       </c>
       <c r="B5518">
-        <v>168.3194896343705</v>
+        <v>168.3194896343704</v>
       </c>
     </row>
     <row r="5519" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>206.8521767265255</v>
+        <v>206.8521767265254</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>162.3783535386277</v>
+        <v>162.3783535386276</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -44919,7 +44919,7 @@
         <v>5572</v>
       </c>
       <c r="B5572">
-        <v>137.1355588366487</v>
+        <v>137.1355588366486</v>
       </c>
     </row>
     <row r="5573" spans="1:2">
@@ -45087,7 +45087,7 @@
         <v>5593</v>
       </c>
       <c r="B5593">
-        <v>98.47948883721722</v>
+        <v>98.4794888372172</v>
       </c>
     </row>
     <row r="5594" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>124.1481157583712</v>
+        <v>124.1481157583711</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45655,7 +45655,7 @@
         <v>5664</v>
       </c>
       <c r="B5664">
-        <v>119.9484077743541</v>
+        <v>119.948407774354</v>
       </c>
     </row>
     <row r="5665" spans="1:2">
@@ -45663,7 +45663,7 @@
         <v>5665</v>
       </c>
       <c r="B5665">
-        <v>116.081042348179</v>
+        <v>116.0810423481789</v>
       </c>
     </row>
     <row r="5666" spans="1:2">
@@ -45727,7 +45727,7 @@
         <v>5673</v>
       </c>
       <c r="B5673">
-        <v>120.3443467475856</v>
+        <v>120.3443467475855</v>
       </c>
     </row>
     <row r="5674" spans="1:2">
@@ -45751,7 +45751,7 @@
         <v>5676</v>
       </c>
       <c r="B5676">
-        <v>139.7186869714098</v>
+        <v>139.7186869714097</v>
       </c>
     </row>
     <row r="5677" spans="1:2">
@@ -45831,7 +45831,7 @@
         <v>5686</v>
       </c>
       <c r="B5686">
-        <v>148.5878958144181</v>
+        <v>148.587895814418</v>
       </c>
     </row>
     <row r="5687" spans="1:2">
@@ -46159,7 +46159,7 @@
         <v>5727</v>
       </c>
       <c r="B5727">
-        <v>185.8999420305486</v>
+        <v>185.8999420305485</v>
       </c>
     </row>
     <row r="5728" spans="1:2">
@@ -46295,7 +46295,7 @@
         <v>5744</v>
       </c>
       <c r="B5744">
-        <v>157.5957272587132</v>
+        <v>157.5957272587131</v>
       </c>
     </row>
     <row r="5745" spans="1:2">
@@ -46679,7 +46679,7 @@
         <v>5792</v>
       </c>
       <c r="B5792">
-        <v>120.8326030979954</v>
+        <v>120.8326030979953</v>
       </c>
     </row>
     <row r="5793" spans="1:2">
@@ -46831,7 +46831,7 @@
         <v>5811</v>
       </c>
       <c r="B5811">
-        <v>56.11870783806771</v>
+        <v>56.1187078380677</v>
       </c>
     </row>
     <row r="5812" spans="1:2">
@@ -46887,7 +46887,7 @@
         <v>5818</v>
       </c>
       <c r="B5818">
-        <v>90.66123273884853</v>
+        <v>90.6612327388485</v>
       </c>
     </row>
     <row r="5819" spans="1:2">
@@ -46919,7 +46919,7 @@
         <v>5822</v>
       </c>
       <c r="B5822">
-        <v>129.5227455363816</v>
+        <v>129.5227455363815</v>
       </c>
     </row>
     <row r="5823" spans="1:2">
@@ -47055,7 +47055,7 @@
         <v>5839</v>
       </c>
       <c r="B5839">
-        <v>146.739496773581</v>
+        <v>146.7394967735809</v>
       </c>
     </row>
     <row r="5840" spans="1:2">
@@ -47063,7 +47063,7 @@
         <v>5840</v>
       </c>
       <c r="B5840">
-        <v>152.3673399289948</v>
+        <v>152.3673399289947</v>
       </c>
     </row>
     <row r="5841" spans="1:2">
@@ -47535,7 +47535,7 @@
         <v>5899</v>
       </c>
       <c r="B5899">
-        <v>142.1441428873711</v>
+        <v>142.144142887371</v>
       </c>
     </row>
     <row r="5900" spans="1:2">
@@ -47543,7 +47543,7 @@
         <v>5900</v>
       </c>
       <c r="B5900">
-        <v>137.0189165632615</v>
+        <v>137.0189165632614</v>
       </c>
     </row>
     <row r="5901" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>151.3234208892831</v>
+        <v>151.323420889283</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>184.336701110329</v>
+        <v>184.3367011103289</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48191,7 +48191,7 @@
         <v>5981</v>
       </c>
       <c r="B5981">
-        <v>164.3064679019807</v>
+        <v>164.3064679019806</v>
       </c>
     </row>
     <row r="5982" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>176.2285977547242</v>
+        <v>176.2285977547241</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>125.2178250494851</v>
+        <v>125.217825049485</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48695,7 +48695,7 @@
         <v>6044</v>
       </c>
       <c r="B6044">
-        <v>139.3192311457144</v>
+        <v>139.3192311457143</v>
       </c>
     </row>
     <row r="6045" spans="1:2">
@@ -48751,7 +48751,7 @@
         <v>6051</v>
       </c>
       <c r="B6051">
-        <v>101.2519408629536</v>
+        <v>101.2519408629535</v>
       </c>
     </row>
     <row r="6052" spans="1:2">
@@ -48823,7 +48823,7 @@
         <v>6060</v>
       </c>
       <c r="B6060">
-        <v>149.7053756848338</v>
+        <v>149.7053756848337</v>
       </c>
     </row>
     <row r="6061" spans="1:2">
@@ -49039,7 +49039,7 @@
         <v>6087</v>
       </c>
       <c r="B6087">
-        <v>168.4718865744744</v>
+        <v>168.4718865744743</v>
       </c>
     </row>
     <row r="6088" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>152.283228540899</v>
+        <v>152.2832285408989</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49247,7 +49247,7 @@
         <v>6113</v>
       </c>
       <c r="B6113">
-        <v>149.8630479036336</v>
+        <v>149.8630479036335</v>
       </c>
     </row>
     <row r="6114" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>120.2775265507708</v>
+        <v>120.2775265507707</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>148.4733050383015</v>
+        <v>148.4733050383014</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49543,7 +49543,7 @@
         <v>6150</v>
       </c>
       <c r="B6150">
-        <v>147.8182912668934</v>
+        <v>147.8182912668933</v>
       </c>
     </row>
     <row r="6151" spans="1:2">
@@ -49687,7 +49687,7 @@
         <v>6168</v>
       </c>
       <c r="B6168">
-        <v>153.7131221385277</v>
+        <v>153.7131221385276</v>
       </c>
     </row>
     <row r="6169" spans="1:2">
@@ -49759,7 +49759,7 @@
         <v>6177</v>
       </c>
       <c r="B6177">
-        <v>143.7780139279081</v>
+        <v>143.778013927908</v>
       </c>
     </row>
     <row r="6178" spans="1:2">
@@ -49767,7 +49767,7 @@
         <v>6178</v>
       </c>
       <c r="B6178">
-        <v>146.5050399426519</v>
+        <v>146.5050399426518</v>
       </c>
     </row>
     <row r="6179" spans="1:2">
@@ -49975,7 +49975,7 @@
         <v>6204</v>
       </c>
       <c r="B6204">
-        <v>123.938863036767</v>
+        <v>123.9388630367669</v>
       </c>
     </row>
     <row r="6205" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>173.0725157393802</v>
+        <v>173.0725157393801</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50623,7 +50623,7 @@
         <v>6285</v>
       </c>
       <c r="B6285">
-        <v>93.25491143100142</v>
+        <v>93.2549114310014</v>
       </c>
     </row>
     <row r="6286" spans="1:2">
@@ -50631,7 +50631,7 @@
         <v>6286</v>
       </c>
       <c r="B6286">
-        <v>82.73043736163385</v>
+        <v>82.73043736163383</v>
       </c>
     </row>
     <row r="6287" spans="1:2">
@@ -50647,7 +50647,7 @@
         <v>6288</v>
       </c>
       <c r="B6288">
-        <v>61.4942168291941</v>
+        <v>61.49421682919409</v>
       </c>
     </row>
     <row r="6289" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>39.12322523505763</v>
+        <v>39.12322523505762</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>81.74952859523432</v>
+        <v>81.74952859523431</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>85.73148479752602</v>
+        <v>85.73148479752601</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>91.93023033625214</v>
+        <v>91.93023033625212</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50831,7 +50831,7 @@
         <v>6311</v>
       </c>
       <c r="B6311">
-        <v>49.36752339146496</v>
+        <v>49.36752339146495</v>
       </c>
     </row>
     <row r="6312" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>2.39024636137652</v>
+        <v>2.390246361376519</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50927,7 +50927,7 @@
         <v>6323</v>
       </c>
       <c r="B6323">
-        <v>21.85729667757087</v>
+        <v>21.85729667757086</v>
       </c>
     </row>
     <row r="6324" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>60.45205621571436</v>
+        <v>60.45205621571435</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>87.92775916125414</v>
+        <v>87.92775916125413</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51007,7 +51007,7 @@
         <v>6333</v>
       </c>
       <c r="B6333">
-        <v>71.578791269531</v>
+        <v>71.57879126953098</v>
       </c>
     </row>
     <row r="6334" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>41.32946401410024</v>
+        <v>41.32946401410023</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51167,7 +51167,7 @@
         <v>6353</v>
       </c>
       <c r="B6353">
-        <v>91.12428497993344</v>
+        <v>91.12428497993342</v>
       </c>
     </row>
     <row r="6354" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>83.61668418254575</v>
+        <v>83.61668418254574</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>54.55927684135069</v>
+        <v>54.55927684135068</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>65.88002492276114</v>
+        <v>65.88002492276112</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -51375,7 +51375,7 @@
         <v>6379</v>
       </c>
       <c r="B6379">
-        <v>88.68153787269112</v>
+        <v>88.68153787269111</v>
       </c>
     </row>
     <row r="6380" spans="1:2">
@@ -51399,7 +51399,7 @@
         <v>6382</v>
       </c>
       <c r="B6382">
-        <v>71.92578737930603</v>
+        <v>71.92578737930602</v>
       </c>
     </row>
     <row r="6383" spans="1:2">
@@ -51415,7 +51415,7 @@
         <v>6384</v>
       </c>
       <c r="B6384">
-        <v>56.31477236293215</v>
+        <v>56.31477236293214</v>
       </c>
     </row>
     <row r="6385" spans="1:2">
@@ -51423,7 +51423,7 @@
         <v>6385</v>
       </c>
       <c r="B6385">
-        <v>61.7717551028064</v>
+        <v>61.77175510280639</v>
       </c>
     </row>
     <row r="6386" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>53.17598153886914</v>
+        <v>53.17598153886913</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51623,7 +51623,7 @@
         <v>6410</v>
       </c>
       <c r="B6410">
-        <v>75.52030366848743</v>
+        <v>75.52030366848741</v>
       </c>
     </row>
     <row r="6411" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>61.39984795474515</v>
+        <v>61.39984795474514</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51687,7 +51687,7 @@
         <v>6418</v>
       </c>
       <c r="B6418">
-        <v>75.4136258104147</v>
+        <v>75.41362581041469</v>
       </c>
     </row>
     <row r="6419" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>67.49279484851452</v>
+        <v>67.49279484851451</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -52023,7 +52023,7 @@
         <v>6460</v>
       </c>
       <c r="B6460">
-        <v>97.01501285702648</v>
+        <v>97.01501285702646</v>
       </c>
     </row>
     <row r="6461" spans="1:2">
@@ -52335,7 +52335,7 @@
         <v>6499</v>
       </c>
       <c r="B6499">
-        <v>128.5060821032654</v>
+        <v>128.5060821032653</v>
       </c>
     </row>
     <row r="6500" spans="1:2">
@@ -52359,7 +52359,7 @@
         <v>6502</v>
       </c>
       <c r="B6502">
-        <v>114.1423774274342</v>
+        <v>114.1423774274341</v>
       </c>
     </row>
     <row r="6503" spans="1:2">
@@ -52391,7 +52391,7 @@
         <v>6506</v>
       </c>
       <c r="B6506">
-        <v>98.73709828020054</v>
+        <v>98.73709828020051</v>
       </c>
     </row>
     <row r="6507" spans="1:2">
@@ -52431,7 +52431,7 @@
         <v>6511</v>
       </c>
       <c r="B6511">
-        <v>123.8614922825604</v>
+        <v>123.8614922825603</v>
       </c>
     </row>
     <row r="6512" spans="1:2">
@@ -52615,7 +52615,7 @@
         <v>6534</v>
       </c>
       <c r="B6534">
-        <v>131.942926173647</v>
+        <v>131.9429261736469</v>
       </c>
     </row>
     <row r="6535" spans="1:2">
@@ -52647,7 +52647,7 @@
         <v>6538</v>
       </c>
       <c r="B6538">
-        <v>136.8527452843405</v>
+        <v>136.8527452843404</v>
       </c>
     </row>
     <row r="6539" spans="1:2">
@@ -52743,7 +52743,7 @@
         <v>6550</v>
       </c>
       <c r="B6550">
-        <v>130.528858412106</v>
+        <v>130.5288584121059</v>
       </c>
     </row>
     <row r="6551" spans="1:2">
@@ -52767,7 +52767,7 @@
         <v>6553</v>
       </c>
       <c r="B6553">
-        <v>122.4526997997153</v>
+        <v>122.4526997997152</v>
       </c>
     </row>
     <row r="6554" spans="1:2">
@@ -52775,7 +52775,7 @@
         <v>6554</v>
       </c>
       <c r="B6554">
-        <v>54.97719614248177</v>
+        <v>54.97719614248176</v>
       </c>
     </row>
     <row r="6555" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>36.74114383281822</v>
+        <v>36.74114383281821</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>31.00574360621569</v>
+        <v>31.00574360621568</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52815,7 +52815,7 @@
         <v>6559</v>
       </c>
       <c r="B6559">
-        <v>35.29894125156574</v>
+        <v>35.29894125156573</v>
       </c>
     </row>
     <row r="6560" spans="1:2">
@@ -52903,7 +52903,7 @@
         <v>6570</v>
       </c>
       <c r="B6570">
-        <v>79.344001509902</v>
+        <v>79.34400150990199</v>
       </c>
     </row>
     <row r="6571" spans="1:2">
@@ -52927,7 +52927,7 @@
         <v>6573</v>
       </c>
       <c r="B6573">
-        <v>58.4213669888299</v>
+        <v>58.42136698882989</v>
       </c>
     </row>
     <row r="6574" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>6.77841074609439</v>
+        <v>6.778410746094389</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -53079,7 +53079,7 @@
         <v>6592</v>
       </c>
       <c r="B6592">
-        <v>78.94659718147722</v>
+        <v>78.9465971814772</v>
       </c>
     </row>
     <row r="6593" spans="1:2">
@@ -53319,7 +53319,7 @@
         <v>6622</v>
       </c>
       <c r="B6622">
-        <v>28.45045722012742</v>
+        <v>28.45045722012741</v>
       </c>
     </row>
     <row r="6623" spans="1:2">
@@ -53335,7 +53335,7 @@
         <v>6624</v>
       </c>
       <c r="B6624">
-        <v>6.434697031952363</v>
+        <v>6.434697031952362</v>
       </c>
     </row>
     <row r="6625" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>30.5151426874966</v>
+        <v>30.51514268749659</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53519,7 +53519,7 @@
         <v>6647</v>
       </c>
       <c r="B6647">
-        <v>50.16965882428106</v>
+        <v>50.16965882428105</v>
       </c>
     </row>
     <row r="6648" spans="1:2">
@@ -53687,7 +53687,7 @@
         <v>6668</v>
       </c>
       <c r="B6668">
-        <v>81.675381622453</v>
+        <v>81.67538162245299</v>
       </c>
     </row>
     <row r="6669" spans="1:2">
@@ -53703,7 +53703,7 @@
         <v>6670</v>
       </c>
       <c r="B6670">
-        <v>82.86231932903145</v>
+        <v>82.86231932903144</v>
       </c>
     </row>
     <row r="6671" spans="1:2">
@@ -53735,7 +53735,7 @@
         <v>6674</v>
       </c>
       <c r="B6674">
-        <v>58.79092956858185</v>
+        <v>58.79092956858184</v>
       </c>
     </row>
     <row r="6675" spans="1:2">
@@ -53743,7 +53743,7 @@
         <v>6675</v>
       </c>
       <c r="B6675">
-        <v>54.36819452414349</v>
+        <v>54.36819452414348</v>
       </c>
     </row>
     <row r="6676" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>43.67842838897092</v>
+        <v>43.67842838897091</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53935,7 +53935,7 @@
         <v>6699</v>
       </c>
       <c r="B6699">
-        <v>54.41156903786537</v>
+        <v>54.41156903786536</v>
       </c>
     </row>
     <row r="6700" spans="1:2">
@@ -53991,7 +53991,7 @@
         <v>6706</v>
       </c>
       <c r="B6706">
-        <v>76.02438585498494</v>
+        <v>76.02438585498493</v>
       </c>
     </row>
     <row r="6707" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>105.7790091971554</v>
+        <v>105.7790091971553</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54087,7 +54087,7 @@
         <v>6718</v>
       </c>
       <c r="B6718">
-        <v>93.49669503789704</v>
+        <v>93.496695037897</v>
       </c>
     </row>
     <row r="6719" spans="1:2">
@@ -54183,7 +54183,7 @@
         <v>6730</v>
       </c>
       <c r="B6730">
-        <v>88.93387203697854</v>
+        <v>88.93387203697853</v>
       </c>
     </row>
     <row r="6731" spans="1:2">
@@ -54647,7 +54647,7 @@
         <v>6788</v>
       </c>
       <c r="B6788">
-        <v>41.64773916208646</v>
+        <v>41.64773916208645</v>
       </c>
     </row>
     <row r="6789" spans="1:2">
@@ -54831,7 +54831,7 @@
         <v>6811</v>
       </c>
       <c r="B6811">
-        <v>24.46495485826792</v>
+        <v>24.46495485826791</v>
       </c>
     </row>
     <row r="6812" spans="1:2">
@@ -54991,7 +54991,7 @@
         <v>6831</v>
       </c>
       <c r="B6831">
-        <v>34.09647077993824</v>
+        <v>34.09647077993823</v>
       </c>
     </row>
     <row r="6832" spans="1:2">
@@ -55007,7 +55007,7 @@
         <v>6833</v>
       </c>
       <c r="B6833">
-        <v>37.67369587783862</v>
+        <v>37.67369587783861</v>
       </c>
     </row>
     <row r="6834" spans="1:2">
@@ -55023,7 +55023,7 @@
         <v>6835</v>
       </c>
       <c r="B6835">
-        <v>24.10828740421706</v>
+        <v>24.10828740421705</v>
       </c>
     </row>
     <row r="6836" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>55.79486434034692</v>
+        <v>55.79486434034691</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55415,7 +55415,7 @@
         <v>6884</v>
       </c>
       <c r="B6884">
-        <v>33.09534011187108</v>
+        <v>33.09534011187107</v>
       </c>
     </row>
     <row r="6885" spans="1:2">
@@ -55559,7 +55559,7 @@
         <v>6902</v>
       </c>
       <c r="B6902">
-        <v>51.93042962455842</v>
+        <v>51.93042962455841</v>
       </c>
     </row>
     <row r="6903" spans="1:2">
@@ -55623,7 +55623,7 @@
         <v>6910</v>
       </c>
       <c r="B6910">
-        <v>28.44477164197739</v>
+        <v>28.44477164197738</v>
       </c>
     </row>
     <row r="6911" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>85.02020138669494</v>
+        <v>85.02020138669492</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>79.6268150622102</v>
+        <v>79.62681506221018</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -55975,7 +55975,7 @@
         <v>6954</v>
       </c>
       <c r="B6954">
-        <v>72.15233129219125</v>
+        <v>72.15233129219123</v>
       </c>
     </row>
     <row r="6955" spans="1:2">
@@ -55999,7 +55999,7 @@
         <v>6957</v>
       </c>
       <c r="B6957">
-        <v>49.73913746848754</v>
+        <v>49.73913746848753</v>
       </c>
     </row>
     <row r="6958" spans="1:2">
@@ -56047,7 +56047,7 @@
         <v>6963</v>
       </c>
       <c r="B6963">
-        <v>7.078749946514536</v>
+        <v>7.078749946514535</v>
       </c>
     </row>
     <row r="6964" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>3.175571239415007</v>
+        <v>3.175571239415006</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>78.3378886341776</v>
+        <v>78.33788863417759</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56191,7 +56191,7 @@
         <v>6981</v>
       </c>
       <c r="B6981">
-        <v>72.39470104116418</v>
+        <v>72.39470104116417</v>
       </c>
     </row>
     <row r="6982" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>41.7907578289532</v>
+        <v>41.79075782895319</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>62.32741779210831</v>
+        <v>62.3274177921083</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56383,7 +56383,7 @@
         <v>7005</v>
       </c>
       <c r="B7005">
-        <v>89.33127636540333</v>
+        <v>89.33127636540331</v>
       </c>
     </row>
     <row r="7006" spans="1:2">
@@ -56391,7 +56391,7 @@
         <v>7006</v>
       </c>
       <c r="B7006">
-        <v>85.92227404369456</v>
+        <v>85.92227404369454</v>
       </c>
     </row>
     <row r="7007" spans="1:2">
@@ -56471,7 +56471,7 @@
         <v>7016</v>
       </c>
       <c r="B7016">
-        <v>66.52976341547334</v>
+        <v>66.52976341547333</v>
       </c>
     </row>
     <row r="7017" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>84.29426442393078</v>
+        <v>84.29426442393077</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56495,7 +56495,7 @@
         <v>7019</v>
       </c>
       <c r="B7019">
-        <v>97.7336230438241</v>
+        <v>97.73362304382408</v>
       </c>
     </row>
     <row r="7020" spans="1:2">
@@ -56519,7 +56519,7 @@
         <v>7022</v>
       </c>
       <c r="B7022">
-        <v>92.65030587824306</v>
+        <v>92.65030587824305</v>
       </c>
     </row>
     <row r="7023" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>91.06860148258778</v>
+        <v>91.06860148258777</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>79.9406941446165</v>
+        <v>79.94069414461649</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -56631,7 +56631,7 @@
         <v>7036</v>
       </c>
       <c r="B7036">
-        <v>72.24376945625359</v>
+        <v>72.24376945625357</v>
       </c>
     </row>
     <row r="7037" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>79.67312028631869</v>
+        <v>79.67312028631868</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>81.83363998333013</v>
+        <v>81.83363998333012</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56751,7 +56751,7 @@
         <v>7051</v>
       </c>
       <c r="B7051">
-        <v>85.88651937697787</v>
+        <v>85.88651937697786</v>
       </c>
     </row>
     <row r="7052" spans="1:2">
@@ -56759,7 +56759,7 @@
         <v>7052</v>
       </c>
       <c r="B7052">
-        <v>80.13412103013299</v>
+        <v>80.13412103013297</v>
       </c>
     </row>
     <row r="7053" spans="1:2">
@@ -56767,7 +56767,7 @@
         <v>7053</v>
       </c>
       <c r="B7053">
-        <v>77.96363691780707</v>
+        <v>77.96363691780705</v>
       </c>
     </row>
     <row r="7054" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>58.58490062840293</v>
+        <v>58.58490062840292</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>81.6958965951593</v>
+        <v>81.69589659515928</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -56975,7 +56975,7 @@
         <v>7079</v>
       </c>
       <c r="B7079">
-        <v>82.1879628690717</v>
+        <v>82.18796286907168</v>
       </c>
     </row>
     <row r="7080" spans="1:2">
@@ -57351,7 +57351,7 @@
         <v>7126</v>
       </c>
       <c r="B7126">
-        <v>93.63121464464258</v>
+        <v>93.63121464464255</v>
       </c>
     </row>
     <row r="7127" spans="1:2">
@@ -57399,7 +57399,7 @@
         <v>7132</v>
       </c>
       <c r="B7132">
-        <v>52.28680400757062</v>
+        <v>52.28680400757061</v>
       </c>
     </row>
     <row r="7133" spans="1:2">
@@ -57423,7 +57423,7 @@
         <v>7135</v>
       </c>
       <c r="B7135">
-        <v>34.92732717454315</v>
+        <v>34.92732717454314</v>
       </c>
     </row>
     <row r="7136" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>83.49212899111468</v>
+        <v>83.49212899111467</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57535,7 +57535,7 @@
         <v>7149</v>
       </c>
       <c r="B7149">
-        <v>62.30660974836335</v>
+        <v>62.30660974836334</v>
       </c>
     </row>
     <row r="7150" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>50.80943290167878</v>
+        <v>50.80943290167877</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57695,7 +57695,7 @@
         <v>7169</v>
       </c>
       <c r="B7169">
-        <v>50.43957725088816</v>
+        <v>50.43957725088815</v>
       </c>
     </row>
     <row r="7170" spans="1:2">
@@ -57879,7 +57879,7 @@
         <v>7192</v>
       </c>
       <c r="B7192">
-        <v>59.35890124150754</v>
+        <v>59.35890124150753</v>
       </c>
     </row>
     <row r="7193" spans="1:2">
@@ -57887,7 +57887,7 @@
         <v>7193</v>
       </c>
       <c r="B7193">
-        <v>59.10422250891083</v>
+        <v>59.10422250891082</v>
       </c>
     </row>
     <row r="7194" spans="1:2">
@@ -57919,7 +57919,7 @@
         <v>7197</v>
       </c>
       <c r="B7197">
-        <v>49.67319648478874</v>
+        <v>49.67319648478873</v>
       </c>
     </row>
     <row r="7198" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>2.392338888592562</v>
+        <v>2.392338888592561</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -58095,7 +58095,7 @@
         <v>7219</v>
       </c>
       <c r="B7219">
-        <v>52.87265301385465</v>
+        <v>52.87265301385464</v>
       </c>
     </row>
     <row r="7220" spans="1:2">
@@ -58111,7 +58111,7 @@
         <v>7221</v>
       </c>
       <c r="B7221">
-        <v>45.05410384444728</v>
+        <v>45.05410384444727</v>
       </c>
     </row>
     <row r="7222" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>7.904653440566073</v>
+        <v>7.904653440566072</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>7.054395743201778</v>
+        <v>7.054395743201777</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>21.46182661800125</v>
+        <v>21.46182661800124</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>2.370730760912061</v>
+        <v>2.37073076091206</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59423,7 +59423,7 @@
         <v>7385</v>
       </c>
       <c r="B7385">
-        <v>58.88295387472152</v>
+        <v>58.88295387472151</v>
       </c>
     </row>
     <row r="7386" spans="1:2">
@@ -59439,7 +59439,7 @@
         <v>7387</v>
       </c>
       <c r="B7387">
-        <v>45.49722725490323</v>
+        <v>45.49722725490322</v>
       </c>
     </row>
     <row r="7388" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>3.354989329283483</v>
+        <v>3.354989329283482</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59647,7 +59647,7 @@
         <v>7413</v>
       </c>
       <c r="B7413">
-        <v>54.39867391216427</v>
+        <v>54.39867391216426</v>
       </c>
     </row>
     <row r="7414" spans="1:2">
@@ -59775,7 +59775,7 @@
         <v>7429</v>
       </c>
       <c r="B7429">
-        <v>60.89576576824764</v>
+        <v>60.89576576824763</v>
       </c>
     </row>
     <row r="7430" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>74.23137724045483</v>
+        <v>74.23137724045482</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59855,7 +59855,7 @@
         <v>7439</v>
       </c>
       <c r="B7439">
-        <v>65.53625259441138</v>
+        <v>65.53625259441137</v>
       </c>
     </row>
     <row r="7440" spans="1:2">
@@ -59887,7 +59887,7 @@
         <v>7443</v>
       </c>
       <c r="B7443">
-        <v>38.76890234931607</v>
+        <v>38.76890234931606</v>
       </c>
     </row>
     <row r="7444" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>65.67077220115694</v>
+        <v>65.67077220115692</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>86.40906503891105</v>
+        <v>86.40906503891104</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>84.9598287527307</v>
+        <v>84.95982875273069</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60063,7 +60063,7 @@
         <v>7465</v>
       </c>
       <c r="B7465">
-        <v>6.457234194825421</v>
+        <v>6.45723419482542</v>
       </c>
     </row>
     <row r="7466" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>6.728647283729693</v>
+        <v>6.728647283729692</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>6.754994370105348</v>
+        <v>6.754994370105347</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>7.902748478814774</v>
+        <v>7.902748478814773</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>7.032210265575115</v>
+        <v>7.032210265575114</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -62071,7 +62071,7 @@
         <v>7716</v>
       </c>
       <c r="B7716">
-        <v>3.17266983613226</v>
+        <v>3.172669836132259</v>
       </c>
     </row>
     <row r="7717" spans="1:2">
@@ -62095,7 +62095,7 @@
         <v>7719</v>
       </c>
       <c r="B7719">
-        <v>43.05184250831297</v>
+        <v>43.05184250831296</v>
       </c>
     </row>
     <row r="7720" spans="1:2">
@@ -62295,7 +62295,7 @@
         <v>7744</v>
       </c>
       <c r="B7744">
-        <v>77.65239547474872</v>
+        <v>77.6523954747487</v>
       </c>
     </row>
     <row r="7745" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>54.34533498312791</v>
+        <v>54.3453349831279</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62335,7 +62335,7 @@
         <v>7749</v>
       </c>
       <c r="B7749">
-        <v>50.12892194990713</v>
+        <v>50.12892194990712</v>
       </c>
     </row>
     <row r="7750" spans="1:2">
@@ -62343,7 +62343,7 @@
         <v>7750</v>
       </c>
       <c r="B7750">
-        <v>41.27084980636797</v>
+        <v>41.27084980636796</v>
       </c>
     </row>
     <row r="7751" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>84.81153480716806</v>
+        <v>84.81153480716804</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>48.03756701801977</v>
+        <v>48.03756701801976</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>58.60277796176127</v>
+        <v>58.60277796176126</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>65.11042037523644</v>
+        <v>65.11042037523643</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>60.34274071829368</v>
+        <v>60.34274071829367</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>61.85557341986354</v>
+        <v>61.85557341986353</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -63407,7 +63407,7 @@
         <v>7883</v>
       </c>
       <c r="B7883">
-        <v>114.3668698430488</v>
+        <v>114.3668698430487</v>
       </c>
     </row>
     <row r="7884" spans="1:2">
@@ -63455,7 +63455,7 @@
         <v>7889</v>
       </c>
       <c r="B7889">
-        <v>74.00952246418819</v>
+        <v>74.00952246418818</v>
       </c>
     </row>
     <row r="7890" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>58.55676580869144</v>
+        <v>58.55676580869143</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63903,7 +63903,7 @@
         <v>7945</v>
       </c>
       <c r="B7945">
-        <v>69.30631843575092</v>
+        <v>69.30631843575091</v>
       </c>
     </row>
     <row r="7946" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>75.0261858973044</v>
+        <v>75.02618589730439</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>78.21069580339858</v>
+        <v>78.21069580339856</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>83.80278429209571</v>
+        <v>83.80278429209569</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>83.29811596352087</v>
+        <v>83.29811596352086</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>76.42442782275768</v>
+        <v>76.42442782275766</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>39.38552381465954</v>
+        <v>39.38552381465953</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>5.911975527395988</v>
+        <v>5.911975527395987</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>87.27743452646462</v>
+        <v>87.2774345264646</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -65015,7 +65015,7 @@
         <v>8084</v>
       </c>
       <c r="B8084">
-        <v>2.662585554762962</v>
+        <v>2.662585554762961</v>
       </c>
     </row>
     <row r="8085" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>29.42990063133364</v>
+        <v>29.42990063133363</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>20.13562155385093</v>
+        <v>20.13562155385092</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -69999,7 +69999,7 @@
         <v>8707</v>
       </c>
       <c r="B8707">
-        <v>33.08772026486589</v>
+        <v>33.08772026486588</v>
       </c>
     </row>
     <row r="8708" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>20.13852295713368</v>
+        <v>20.13852295713367</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70039,7 +70039,7 @@
         <v>8712</v>
       </c>
       <c r="B8712">
-        <v>11.43416657337239</v>
+        <v>11.43416657337238</v>
       </c>
     </row>
     <row r="8713" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>64.6725722434764</v>
+        <v>64.67257224347638</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>53.65485961604178</v>
+        <v>53.65485961604177</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
@@ -70183,7 +70183,7 @@
         <v>8730</v>
       </c>
       <c r="B8730">
-        <v>53.88960951800952</v>
+        <v>53.88960951800951</v>
       </c>
     </row>
     <row r="8731" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>63.98825136820215</v>
+        <v>63.98825136820214</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>20.74239583229538</v>
+        <v>20.74239583229537</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>7.079599852526654</v>
+        <v>7.079599852526653</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
